--- a/Data_preparation/datasets/final_data/DATADOG_INC_CLASS_A.xlsx
+++ b/Data_preparation/datasets/final_data/DATADOG_INC_CLASS_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,84 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -730,22 +652,22 @@
         <v>43100</v>
       </c>
       <c r="D2">
-        <v>8.751999855041504</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="E2">
-        <v>9.208000183105469</v>
+        <v>33.90999984741211</v>
       </c>
       <c r="F2">
-        <v>9.28600025177002</v>
+        <v>41.43999862670898</v>
       </c>
       <c r="G2">
-        <v>8.696000099182129</v>
+        <v>30.46999931335449</v>
       </c>
       <c r="H2">
-        <v>766266033</v>
+        <v>323270704</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>-63494000</v>
@@ -771,22 +693,22 @@
         <v>43373</v>
       </c>
       <c r="D3">
-        <v>40.01662959399956</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="E3">
-        <v>40.09360122680664</v>
+        <v>33.90999984741211</v>
       </c>
       <c r="F3">
-        <v>42.52247987457982</v>
+        <v>41.43999862670898</v>
       </c>
       <c r="G3">
-        <v>36.22792094161961</v>
+        <v>30.46999931335449</v>
       </c>
       <c r="H3">
-        <v>4757218036</v>
+        <v>323270704</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>51074000</v>
@@ -848,22 +770,22 @@
         <v>43465</v>
       </c>
       <c r="D4">
-        <v>42.82212632249508</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="E4">
-        <v>46.75239944458008</v>
+        <v>33.90999984741211</v>
       </c>
       <c r="F4">
-        <v>46.95784665825049</v>
+        <v>41.43999862670898</v>
       </c>
       <c r="G4">
-        <v>41.83955640128374</v>
+        <v>30.46999931335449</v>
       </c>
       <c r="H4">
-        <v>450687724</v>
+        <v>323270704</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>-64980000</v>
@@ -934,22 +856,22 @@
         <v>43555</v>
       </c>
       <c r="D5">
-        <v>83.62000274658203</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="E5">
-        <v>104.0299987792969</v>
+        <v>33.90999984741211</v>
       </c>
       <c r="F5">
-        <v>104.9800033569336</v>
+        <v>41.43999862670898</v>
       </c>
       <c r="G5">
-        <v>82.03099822998047</v>
+        <v>30.46999931335449</v>
       </c>
       <c r="H5">
-        <v>168459019</v>
+        <v>323270704</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>70050000</v>
@@ -1011,22 +933,22 @@
         <v>43646</v>
       </c>
       <c r="D6">
-        <v>14.72999954223633</v>
+        <v>40.34999847412109</v>
       </c>
       <c r="E6">
-        <v>16.79999923706055</v>
+        <v>33.90999984741211</v>
       </c>
       <c r="F6">
-        <v>18.36000061035156</v>
+        <v>41.43999862670898</v>
       </c>
       <c r="G6">
-        <v>13.96000003814697</v>
+        <v>30.46999931335449</v>
       </c>
       <c r="H6">
-        <v>1435682333</v>
+        <v>323270704</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>-12027000</v>
@@ -1106,22 +1028,22 @@
         <v>43738</v>
       </c>
       <c r="D7">
-        <v>42.51583583355016</v>
+        <v>34.25</v>
       </c>
       <c r="E7">
-        <v>42.25590896606445</v>
+        <v>33.59000015258789</v>
       </c>
       <c r="F7">
-        <v>43.8557984628152</v>
+        <v>37.97000122070312</v>
       </c>
       <c r="G7">
-        <v>39.92553545962458</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="H7">
-        <v>539679667</v>
+        <v>323270704</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>9828293490</v>
@@ -1222,22 +1144,22 @@
         <v>43830</v>
       </c>
       <c r="D8">
-        <v>74.30999755859375</v>
+        <v>38.22000122070312</v>
       </c>
       <c r="E8">
-        <v>78.51000213623047</v>
+        <v>46.20999908447266</v>
       </c>
       <c r="F8">
-        <v>80.26000213623047</v>
+        <v>47.2599983215332</v>
       </c>
       <c r="G8">
-        <v>70.55000305175781</v>
+        <v>35.95800018310547</v>
       </c>
       <c r="H8">
-        <v>201104117</v>
+        <v>323270704</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>11176472588</v>
@@ -1338,22 +1260,22 @@
         <v>43921</v>
       </c>
       <c r="D9">
-        <v>26.5</v>
+        <v>34.83000183105469</v>
       </c>
       <c r="E9">
-        <v>30.27000045776367</v>
+        <v>45.11999893188477</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>45.27999877929688</v>
       </c>
       <c r="G9">
-        <v>21.67000007629395</v>
+        <v>33.04000091552734</v>
       </c>
       <c r="H9">
-        <v>2085418676</v>
+        <v>323270704</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>10688694959</v>
@@ -1454,22 +1376,22 @@
         <v>44012</v>
       </c>
       <c r="D10">
-        <v>256.4700012207031</v>
+        <v>87.19000244140625</v>
       </c>
       <c r="E10">
-        <v>280.75</v>
+        <v>93.86000061035156</v>
       </c>
       <c r="F10">
-        <v>287.8299865722656</v>
+        <v>98.98999786376952</v>
       </c>
       <c r="G10">
-        <v>250.9499969482422</v>
+        <v>81.54100036621094</v>
       </c>
       <c r="H10">
-        <v>50845151</v>
+        <v>323270704</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>26030970487</v>
@@ -1570,22 +1492,22 @@
         <v>44104</v>
       </c>
       <c r="D11">
-        <v>142.1999969482422</v>
+        <v>101.4300003051758</v>
       </c>
       <c r="E11">
-        <v>135.75</v>
+        <v>90.75</v>
       </c>
       <c r="F11">
-        <v>158.7359924316406</v>
+        <v>118.129997253418</v>
       </c>
       <c r="G11">
-        <v>133.8099975585938</v>
+        <v>90.54000091552734</v>
       </c>
       <c r="H11">
-        <v>158300823</v>
+        <v>323270704</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>30988750287</v>
@@ -1686,22 +1608,22 @@
         <v>44196</v>
       </c>
       <c r="D12">
-        <v>29.91399955749512</v>
+        <v>98.69000244140624</v>
       </c>
       <c r="E12">
-        <v>28.95000076293945</v>
+        <v>102.75</v>
       </c>
       <c r="F12">
-        <v>31.0620002746582</v>
+        <v>112.2900009155273</v>
       </c>
       <c r="G12">
-        <v>27.46199989318848</v>
+        <v>89.83200073242188</v>
       </c>
       <c r="H12">
-        <v>766266033</v>
+        <v>323270704</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>29978164436</v>
@@ -1802,22 +1724,22 @@
         <v>44286</v>
       </c>
       <c r="D13">
-        <v>529.9299926757812</v>
+        <v>86.94999694824219</v>
       </c>
       <c r="E13">
-        <v>513.469970703125</v>
+        <v>85.76999664306641</v>
       </c>
       <c r="F13">
-        <v>563.5599975585938</v>
+        <v>96.34999847412109</v>
       </c>
       <c r="G13">
-        <v>499</v>
+        <v>81.69999694824219</v>
       </c>
       <c r="H13">
-        <v>424926346</v>
+        <v>323270704</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>25543024528</v>
@@ -1918,22 +1840,22 @@
         <v>44377</v>
       </c>
       <c r="D14">
-        <v>46.47724219552952</v>
+        <v>103.5100021362305</v>
       </c>
       <c r="E14">
-        <v>48.50979995727539</v>
+        <v>110.6999969482422</v>
       </c>
       <c r="F14">
-        <v>48.75511095753174</v>
+        <v>114.1999969482422</v>
       </c>
       <c r="G14">
-        <v>45.85521015250949</v>
+        <v>101.379997253418</v>
       </c>
       <c r="H14">
-        <v>3953196953</v>
+        <v>323270704</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>32096549372</v>
@@ -2034,22 +1956,22 @@
         <v>44469</v>
       </c>
       <c r="D15">
-        <v>138.916410444292</v>
+        <v>142.0200042724609</v>
       </c>
       <c r="E15">
-        <v>146.6503143310547</v>
+        <v>167.0500030517578</v>
       </c>
       <c r="F15">
-        <v>149.9494520691154</v>
+        <v>168.7299957275391</v>
       </c>
       <c r="G15">
-        <v>135.3627448332334</v>
+        <v>134.6300048828125</v>
       </c>
       <c r="H15">
-        <v>14840390000</v>
+        <v>323270704</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>43820747324</v>
@@ -2150,22 +2072,22 @@
         <v>44561</v>
       </c>
       <c r="D16">
-        <v>17.05999946594238</v>
+        <v>178.75</v>
       </c>
       <c r="E16">
-        <v>15.57999992370606</v>
+        <v>146.1100006103516</v>
       </c>
       <c r="F16">
-        <v>19.65999984741211</v>
+        <v>180.2799987792969</v>
       </c>
       <c r="G16">
-        <v>13.14000034332275</v>
+        <v>119.1900024414062</v>
       </c>
       <c r="H16">
-        <v>250599325</v>
+        <v>323270704</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>55573235304</v>
@@ -2266,22 +2188,22 @@
         <v>44651</v>
       </c>
       <c r="D17">
-        <v>151.2200012207031</v>
+        <v>150.9799957275391</v>
       </c>
       <c r="E17">
-        <v>119.3099975585938</v>
+        <v>120.7799987792969</v>
       </c>
       <c r="F17">
-        <v>161.6100006103516</v>
+        <v>159</v>
       </c>
       <c r="G17">
-        <v>118.879997253418</v>
+        <v>117.8600006103516</v>
       </c>
       <c r="H17">
-        <v>168459019</v>
+        <v>323270704</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>47547902108</v>
@@ -2382,22 +2304,22 @@
         <v>44742</v>
       </c>
       <c r="D18">
-        <v>3.200000047683716</v>
+        <v>95.25</v>
       </c>
       <c r="E18">
-        <v>3.930000066757202</v>
+        <v>102.0100021362305</v>
       </c>
       <c r="F18">
-        <v>4.539999961853027</v>
+        <v>112.5800018310547</v>
       </c>
       <c r="G18">
-        <v>3.109999895095825</v>
+        <v>84.45999908447266</v>
       </c>
       <c r="H18">
-        <v>448228270</v>
+        <v>323270704</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>30002255366</v>
@@ -2498,22 +2420,22 @@
         <v>44834</v>
       </c>
       <c r="D19">
-        <v>254.5</v>
+        <v>89.61000061035156</v>
       </c>
       <c r="E19">
-        <v>227.5399932861328</v>
+        <v>80.51000213623047</v>
       </c>
       <c r="F19">
-        <v>257.5</v>
+        <v>97.31400299072266</v>
       </c>
       <c r="G19">
-        <v>198.5899963378907</v>
+        <v>75.53500366210938</v>
       </c>
       <c r="H19">
-        <v>3325150886</v>
+        <v>323270704</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>28094048092</v>
@@ -2614,22 +2536,22 @@
         <v>44926</v>
       </c>
       <c r="D20">
-        <v>26.71999931335449</v>
+        <v>75.19499969482422</v>
       </c>
       <c r="E20">
-        <v>28.72999954223633</v>
+        <v>74.80999755859375</v>
       </c>
       <c r="F20">
-        <v>29.72999954223633</v>
+        <v>78.62999725341797</v>
       </c>
       <c r="G20">
-        <v>26.64999961853028</v>
+        <v>61.34000015258789</v>
       </c>
       <c r="H20">
-        <v>178998669</v>
+        <v>323270704</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>23340648093</v>
@@ -2730,22 +2652,22 @@
         <v>45016</v>
       </c>
       <c r="D21">
-        <v>261.1884929516806</v>
+        <v>71.61499786376953</v>
       </c>
       <c r="E21">
-        <v>225.4617156982422</v>
+        <v>67.37999725341797</v>
       </c>
       <c r="F21">
-        <v>262.5264343168398</v>
+        <v>72.66999816894531</v>
       </c>
       <c r="G21">
-        <v>223.9783523558658</v>
+        <v>62.59700012207031</v>
       </c>
       <c r="H21">
-        <v>60498713</v>
+        <v>323270704</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>23243424726</v>
@@ -2846,22 +2768,22 @@
         <v>45107</v>
       </c>
       <c r="D22">
-        <v>18.42000007629395</v>
+        <v>98.09999847412109</v>
       </c>
       <c r="E22">
-        <v>19.04000091552734</v>
+        <v>116.7200012207031</v>
       </c>
       <c r="F22">
-        <v>19.38999938964844</v>
+        <v>118.0199966430664</v>
       </c>
       <c r="G22">
-        <v>17.57999992370605</v>
+        <v>95.30999755859376</v>
       </c>
       <c r="H22">
-        <v>260676335</v>
+        <v>323270704</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>31666068600</v>
@@ -2962,22 +2884,22 @@
         <v>45199</v>
       </c>
       <c r="D23">
-        <v>62.6169871617784</v>
+        <v>92.54000091552734</v>
       </c>
       <c r="E23">
-        <v>64.67326354980469</v>
+        <v>81.47000122070312</v>
       </c>
       <c r="F23">
-        <v>66.63478202323152</v>
+        <v>94.8000030517578</v>
       </c>
       <c r="G23">
-        <v>60.75970456328059</v>
+        <v>79.37000274658203</v>
       </c>
       <c r="H23">
-        <v>212968277</v>
+        <v>323270704</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>29604200720</v>
@@ -3078,22 +3000,22 @@
         <v>45291</v>
       </c>
       <c r="D24">
-        <v>1152.400024414062</v>
+        <v>119.2249984741211</v>
       </c>
       <c r="E24">
-        <v>1198.829956054688</v>
+        <v>124.4400024414062</v>
       </c>
       <c r="F24">
-        <v>1307.140014648438</v>
+        <v>136.0749969482422</v>
       </c>
       <c r="G24">
-        <v>1113.18994140625</v>
+        <v>110.6949996948242</v>
       </c>
       <c r="H24">
-        <v>24003656</v>
+        <v>323270704</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>39879845193</v>
@@ -3194,22 +3116,22 @@
         <v>45382</v>
       </c>
       <c r="D25">
-        <v>104.6600036621094</v>
+        <v>123.8649978637695</v>
       </c>
       <c r="E25">
-        <v>92.98000335693359</v>
+        <v>125.5</v>
       </c>
       <c r="F25">
-        <v>105.0100021362305</v>
+        <v>132.8999938964844</v>
       </c>
       <c r="G25">
-        <v>90.66999816894533</v>
+        <v>118.4599990844727</v>
       </c>
       <c r="H25">
-        <v>168459019</v>
+        <v>323270704</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>41019639625</v>
@@ -3310,22 +3232,22 @@
         <v>45473</v>
       </c>
       <c r="D26">
-        <v>53.97000122070312</v>
+        <v>129.0399932861328</v>
       </c>
       <c r="E26">
-        <v>52.63999938964844</v>
+        <v>116.4400024414062</v>
       </c>
       <c r="F26">
-        <v>65.87999725341797</v>
+        <v>134.8000030517578</v>
       </c>
       <c r="G26">
-        <v>50.29000091552734</v>
+        <v>113.5800018310547</v>
       </c>
       <c r="H26">
-        <v>42689006</v>
+        <v>323270704</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>43381150928</v>
@@ -3426,22 +3348,22 @@
         <v>45565</v>
       </c>
       <c r="D27">
-        <v>36.50313191135645</v>
+        <v>117.4499969482422</v>
       </c>
       <c r="E27">
-        <v>39.63111877441406</v>
+        <v>125.4400024414062</v>
       </c>
       <c r="F27">
-        <v>41.15769383693995</v>
+        <v>131.8399963378906</v>
       </c>
       <c r="G27">
-        <v>34.26814654717644</v>
+        <v>113.0800018310547</v>
       </c>
       <c r="H27">
-        <v>171080665</v>
+        <v>323270704</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>38792740762</v>
@@ -3554,22 +3476,22 @@
         <v>45657</v>
       </c>
       <c r="D28">
-        <v>12.96000003814697</v>
+        <v>145</v>
       </c>
       <c r="E28">
-        <v>14.22000026702881</v>
+        <v>142.7100067138672</v>
       </c>
       <c r="F28">
-        <v>15.34500026702881</v>
+        <v>153.4199981689453</v>
       </c>
       <c r="G28">
-        <v>12.61999988555908</v>
+        <v>134.7149963378906</v>
       </c>
       <c r="H28">
-        <v>453568899</v>
+        <v>323270704</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>48543027329</v>
@@ -3682,22 +3604,22 @@
         <v>45747</v>
       </c>
       <c r="D29">
-        <v>187.8600006103516</v>
+        <v>100.1900024414062</v>
       </c>
       <c r="E29">
-        <v>184.4199981689453</v>
+        <v>102.1600036621094</v>
       </c>
       <c r="F29">
-        <v>198.3399963378907</v>
+        <v>102.8600006103516</v>
       </c>
       <c r="G29">
-        <v>161.3800048828125</v>
+        <v>81.62999725341797</v>
       </c>
       <c r="H29">
-        <v>10664912097</v>
+        <v>323270704</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>34005618027</v>
@@ -3810,22 +3732,22 @@
         <v>45838</v>
       </c>
       <c r="D30">
-        <v>105.0804770925983</v>
+        <v>133.6600036621094</v>
       </c>
       <c r="E30">
-        <v>103.1780242919922</v>
+        <v>139.9799957275391</v>
       </c>
       <c r="F30">
-        <v>109.3114367486601</v>
+        <v>157.375</v>
       </c>
       <c r="G30">
-        <v>101.4440230697358</v>
+        <v>130.2799987792969</v>
       </c>
       <c r="H30">
-        <v>199618386</v>
+        <v>323270704</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>46391299520</v>
